--- a/out/RAW DATA 02/POCESSED.xlsx
+++ b/out/RAW DATA 02/POCESSED.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,11 +806,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -822,11 +818,7 @@
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -838,11 +830,7 @@
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -854,11 +842,7 @@
       <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -870,11 +854,7 @@
       <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -886,11 +866,7 @@
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -902,11 +878,7 @@
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -918,11 +890,7 @@
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -934,11 +902,7 @@
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -950,11 +914,7 @@
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Invest</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -966,11 +926,7 @@
       <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -982,11 +938,7 @@
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -997,22 +949,6 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CRE2-2025-TP002-02_ER_In</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
